--- a/TransferList/JsonToExcel.xlsx
+++ b/TransferList/JsonToExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProjects\Jexcel\TransferList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D0CBB3-DE56-4F05-AB9A-CDA2C0A01FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF75DD42-4D5D-4428-BD3A-A22E08D6E858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="4740" windowWidth="33450" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="4740" windowWidth="26340" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>NOT SUPPORTED YET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,11 +356,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
